--- a/数据库表设置.xlsx
+++ b/数据库表设置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="客户HR" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
   <si>
     <t xml:space="preserve">模块</t>
   </si>
@@ -865,61 +865,52 @@
     <t xml:space="preserve">因子2分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor1_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 1 id</t>
+    <t xml:space="preserve">factor3_total_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子3分值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModelDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型定制表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor4_total_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子4分值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor5_total_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子5分值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子id</t>
   </si>
   <si>
     <t xml:space="preserve">外键到因子表</t>
   </si>
   <si>
-    <t xml:space="preserve">factor3_total_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子3分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facto2_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 2 id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor4_total_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子4分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor3_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 3 id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor5_total_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子5分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor4_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 4  id</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor6_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子6分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor5_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 5 id</t>
+    <t xml:space="preserve">factor_ex_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子期望值</t>
   </si>
   <si>
     <t xml:space="preserve">factor7_total_value</t>
@@ -928,112 +919,22 @@
     <t xml:space="preserve">因子7分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor6_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 6  id</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor8_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子8分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor7_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 7 id</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor9_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子9分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor8_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 8 id</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor10_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子10分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor9_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 9  id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor10_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 10 id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor1_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 1期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor2_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 2  期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor3_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 3 期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor4_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 4  期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor5_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 5 期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor6_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 6  期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor7_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 7 期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor8_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 8期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor9_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 9 期望分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor10_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子 10 期望分值</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +945,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
@@ -1078,11 +979,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1192,7 +1088,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,19 +1233,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1438,13 +1326,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.5627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="62.8837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="104.604651162791"/>
-    <col collapsed="false" hidden="false" max="254" min="6" style="2" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="3" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.1627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="64.7302325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="107.804651162791"/>
+    <col collapsed="false" hidden="false" max="254" min="6" style="2" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="3" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20163,17 +20051,17 @@
   </sheetPr>
   <dimension ref="A1:IT78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="48.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="61.4093023255814"/>
-    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="50.2093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20709,7 +20597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="19" t="s">
         <v>7</v>
@@ -20717,8 +20605,259 @@
       <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
         <v>56</v>
       </c>
@@ -20728,8 +20867,259 @@
       <c r="C5" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20"/>
       <c r="B6" s="19" t="s">
         <v>59</v>
@@ -20737,8 +21127,259 @@
       <c r="C6" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20"/>
       <c r="B7" s="19" t="s">
         <v>61</v>
@@ -20746,29 +21387,1033 @@
       <c r="C7" s="21" t="s">
         <v>62</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="21" t="s">
         <v>63</v>
       </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
         <v>64</v>
       </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="20"/>
       <c r="B11" s="23" t="s">
         <v>66</v>
@@ -20776,8 +22421,259 @@
       <c r="C11" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20"/>
       <c r="B12" s="19" t="s">
         <v>68</v>
@@ -20785,6 +22681,257 @@
       <c r="C12" s="22" t="s">
         <v>69</v>
       </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="20"/>
@@ -25477,7 +27624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>22</v>
@@ -25486,28 +27633,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="19" t="s">
         <v>104</v>
@@ -25516,28 +27663,28 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="19" t="s">
         <v>109</v>
@@ -25546,28 +27693,28 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
       <c r="B46" s="19" t="s">
         <v>114</v>
@@ -25576,28 +27723,28 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
       <c r="B50" s="28" t="s">
         <v>37</v>
@@ -25606,7 +27753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
         <v>120</v>
       </c>
@@ -25617,35 +27764,35 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="19"/>
       <c r="C52" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15"/>
       <c r="B54" s="19"/>
       <c r="C54" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="19"/>
       <c r="C55" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15"/>
       <c r="B56" s="28" t="s">
         <v>127</v>
@@ -25654,7 +27801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15"/>
       <c r="B57" s="19" t="s">
         <v>129</v>
@@ -25663,14 +27810,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>132</v>
@@ -25679,7 +27826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
         <v>40</v>
@@ -25688,63 +27835,63 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15"/>
       <c r="B61" s="19"/>
       <c r="C61" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15"/>
       <c r="B64" s="19"/>
       <c r="C64" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="65" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15"/>
       <c r="B67" s="19"/>
       <c r="C67" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15"/>
       <c r="B68" s="19"/>
       <c r="C68" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" s="13" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15"/>
       <c r="B69" s="19" t="s">
         <v>138</v>
@@ -25885,11 +28032,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="48.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="50.2093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="63.9906976744186"/>
+    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26582,24 +28729,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="15.7441860465116"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="31.9162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="18.5348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.1255813953488"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="15.6139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="15.5813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="15.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="32.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.6883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26608,10 +28754,12 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
+      <c r="E1" s="0"/>
       <c r="F1" s="31" t="s">
         <v>167</v>
       </c>
       <c r="G1" s="31"/>
+      <c r="I1" s="0"/>
       <c r="J1" s="32" t="s">
         <v>168</v>
       </c>
@@ -26647,16 +28795,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C3" s="0"/>
+      <c r="E3" s="0"/>
       <c r="F3" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G3" s="0"/>
+      <c r="I3" s="0"/>
       <c r="J3" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -26672,12 +28825,14 @@
       <c r="F4" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="G4" s="0"/>
       <c r="I4" s="3" t="s">
         <v>181</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -26695,12 +28850,14 @@
       <c r="F5" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="G5" s="0"/>
       <c r="I5" s="3" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -26718,10 +28875,18 @@
       <c r="F6" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="G6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
       <c r="I7" s="35" t="s">
         <v>195</v>
       </c>
@@ -26745,31 +28910,36 @@
         <v>200</v>
       </c>
       <c r="G8" s="34"/>
+      <c r="I8" s="0"/>
       <c r="J8" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="0"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="0"/>
+      <c r="F9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="32"/>
       <c r="I9" s="3" t="s">
         <v>201</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -26781,6 +28951,7 @@
       <c r="F10" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="G10" s="0"/>
       <c r="I10" s="3" t="s">
         <v>207</v>
       </c>
@@ -26805,6 +28976,7 @@
       <c r="F11" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="G11" s="0"/>
       <c r="I11" s="3" t="s">
         <v>212</v>
       </c>
@@ -26826,6 +28998,7 @@
       <c r="F12" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="G12" s="0"/>
       <c r="I12" s="3" t="s">
         <v>216</v>
       </c>
@@ -26860,8 +29033,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
+      <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="I14" s="3" t="s">
@@ -26896,13 +29071,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
       <c r="B16" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="0"/>
+      <c r="E16" s="0"/>
       <c r="F16" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G16" s="0"/>
       <c r="I16" s="3" t="s">
         <v>229</v>
       </c>
@@ -26924,6 +29102,7 @@
       <c r="F17" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="G17" s="0"/>
       <c r="I17" s="3" t="s">
         <v>233</v>
       </c>
@@ -26947,6 +29126,7 @@
       <c r="F18" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="G18" s="0"/>
       <c r="I18" s="3" t="s">
         <v>238</v>
       </c>
@@ -26968,6 +29148,7 @@
       <c r="F19" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="G19" s="0"/>
       <c r="I19" s="3" t="s">
         <v>242</v>
       </c>
@@ -26983,6 +29164,9 @@
         <v>171</v>
       </c>
       <c r="C20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
       <c r="I20" s="3" t="s">
         <v>245</v>
       </c>
@@ -27007,11 +29191,14 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
+      <c r="E22" s="0"/>
       <c r="F22" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
@@ -27027,8 +29214,10 @@
       <c r="F23" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="G23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -27039,6 +29228,7 @@
       <c r="F24" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="G24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -27056,6 +29246,7 @@
       <c r="F25" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -27067,6 +29258,9 @@
       <c r="C26" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -27079,10 +29273,10 @@
       <c r="E27" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -27092,11 +29286,14 @@
         <v>268</v>
       </c>
       <c r="C28" s="0"/>
+      <c r="E28" s="0"/>
       <c r="F28" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="E29" s="3" t="s">
@@ -27105,6 +29302,7 @@
       <c r="F29" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="G29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
@@ -27114,11 +29312,16 @@
         <v>39</v>
       </c>
       <c r="C30" s="33"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
       <c r="B31" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="C31" s="0"/>
       <c r="E31" s="34" t="s">
         <v>271</v>
       </c>
@@ -27128,15 +29331,18 @@
       <c r="G31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="32" t="s">
         <v>273</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="C32" s="0"/>
+      <c r="E32" s="0"/>
       <c r="F32" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
@@ -27145,12 +29351,14 @@
       <c r="B33" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="C33" s="0"/>
       <c r="E33" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
@@ -27160,251 +29368,110 @@
         <v>279</v>
       </c>
       <c r="C34" s="0"/>
-      <c r="E34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>282</v>
-      </c>
+      <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C35" s="0"/>
       <c r="E35" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" s="0"/>
       <c r="E36" s="3" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C37" s="0"/>
       <c r="E37" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C38" s="0"/>
       <c r="E38" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C39" s="0"/>
-      <c r="E39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C40" s="0"/>
-      <c r="E40" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C41" s="0"/>
-      <c r="E41" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C42" s="0"/>
-      <c r="E42" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0"/>
-      <c r="E43" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>336</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/数据库表设置.xlsx
+++ b/数据库表设置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="客户HR" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="306">
   <si>
     <t xml:space="preserve">模块</t>
   </si>
@@ -574,160 +574,172 @@
     <t xml:space="preserve">题目名称</t>
   </si>
   <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qustion_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">题目类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moding_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选取模型定制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键到模型表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">答案表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobneed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职位需求表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户HR表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">答案内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职位id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键到职位名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR帐号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属题目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键到题库表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobdescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职位描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor1_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子1加权分值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobrequirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职位要求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor2_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子2加权分值</t>
+  </si>
+  <si>
     <t xml:space="preserve">company_id</t>
   </si>
   <si>
-    <t xml:space="preserve">公司id</t>
+    <t xml:space="preserve">所属公司</t>
   </si>
   <si>
     <t xml:space="preserve">外键到公司表</t>
   </si>
   <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qustion_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">题目类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moding_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选取模型定制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键到模型表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邮箱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">答案表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobneed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职位需求表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">客户HR表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">答案内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职位id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键到职位名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR帐号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">question_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属题目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键到题库表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobdescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职位描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor1_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子1加权分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobrequirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">职位要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor2_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子2加权分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属公司</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor3_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子3加权分值</t>
   </si>
   <si>
+    <t xml:space="preserve">create_hr_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键到hr表</t>
+  </si>
+  <si>
     <t xml:space="preserve">factor4_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子4加权分值</t>
   </si>
   <si>
+    <t xml:space="preserve">UserExpert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心理学家表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor5_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子5加权分值</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tester</t>
   </si>
   <si>
     <t xml:space="preserve">被测试人员表</t>
   </si>
   <si>
-    <t xml:space="preserve">UserExpert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心理学家表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor5_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子5加权分值</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor6_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子6加权分值</t>
   </si>
   <si>
+    <t xml:space="preserve">帐号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor7_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子7加权分值</t>
+  </si>
+  <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">帐号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor7_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子7加权分值</t>
+    <t xml:space="preserve">factor8_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子8加权分值</t>
   </si>
   <si>
     <t xml:space="preserve">Jobneed_id</t>
@@ -739,10 +751,10 @@
     <t xml:space="preserve">外键到职位需求表</t>
   </si>
   <si>
-    <t xml:space="preserve">factor8_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子8加权分值</t>
+    <t xml:space="preserve">factor9_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子9加权分值</t>
   </si>
   <si>
     <t xml:space="preserve">sex</t>
@@ -751,19 +763,19 @@
     <t xml:space="preserve">性别</t>
   </si>
   <si>
-    <t xml:space="preserve">factor9_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子9加权分值</t>
+    <t xml:space="preserve">factor10_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子10加权分值</t>
   </si>
   <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <t xml:space="preserve">factor10_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子10加权分值</t>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司表</t>
   </si>
   <si>
     <t xml:space="preserve">status</t>
@@ -772,10 +784,10 @@
     <t xml:space="preserve">测试者职位状态</t>
   </si>
   <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公司表</t>
+    <t xml:space="preserve">logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司logo</t>
   </si>
   <si>
     <t xml:space="preserve">Testchart</t>
@@ -784,15 +796,15 @@
     <t xml:space="preserve">测试表</t>
   </si>
   <si>
-    <t xml:space="preserve">logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公司logo</t>
-  </si>
-  <si>
     <t xml:space="preserve">公司名称</t>
   </si>
   <si>
+    <t xml:space="preserve">info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司信息</t>
+  </si>
+  <si>
     <t xml:space="preserve">tester_id</t>
   </si>
   <si>
@@ -802,12 +814,6 @@
     <t xml:space="preserve">外键到被测试人员表</t>
   </si>
   <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公司信息</t>
-  </si>
-  <si>
     <t xml:space="preserve">jobneed_id</t>
   </si>
   <si>
@@ -817,18 +823,18 @@
     <t xml:space="preserve">外键到职位表</t>
   </si>
   <si>
+    <t xml:space="preserve">Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子表</t>
+  </si>
+  <si>
     <t xml:space="preserve">link</t>
   </si>
   <si>
     <t xml:space="preserve">测试链接</t>
   </si>
   <si>
-    <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子表</t>
-  </si>
-  <si>
     <t xml:space="preserve">测试完成状态</t>
   </si>
   <si>
@@ -850,31 +856,34 @@
     <t xml:space="preserve">测试表id</t>
   </si>
   <si>
+    <t xml:space="preserve">模型名称</t>
+  </si>
+  <si>
     <t xml:space="preserve">factor1_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子1分值</t>
   </si>
   <si>
-    <t xml:space="preserve">模型名称</t>
-  </si>
-  <si>
     <t xml:space="preserve">factor2_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子2分值</t>
   </si>
   <si>
+    <t xml:space="preserve">ModelDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型定制表</t>
+  </si>
+  <si>
     <t xml:space="preserve">factor3_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子3分值</t>
   </si>
   <si>
-    <t xml:space="preserve">ModelDesign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模型定制表</t>
+    <t xml:space="preserve">模型id</t>
   </si>
   <si>
     <t xml:space="preserve">factor4_total_value</t>
@@ -883,7 +892,13 @@
     <t xml:space="preserve">因子4分值</t>
   </si>
   <si>
-    <t xml:space="preserve">模型id</t>
+    <t xml:space="preserve">factor_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外键到因子表</t>
   </si>
   <si>
     <t xml:space="preserve">factor5_total_value</t>
@@ -892,25 +907,16 @@
     <t xml:space="preserve">因子5分值</t>
   </si>
   <si>
-    <t xml:space="preserve">factor_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外键到因子表</t>
+    <t xml:space="preserve">factor_ex_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因子期望值</t>
   </si>
   <si>
     <t xml:space="preserve">factor6_total_value</t>
   </si>
   <si>
     <t xml:space="preserve">因子6分值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor_ex_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子期望值</t>
   </si>
   <si>
     <t xml:space="preserve">factor7_total_value</t>
@@ -1326,13 +1332,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.1627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="64.7302325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="107.804651162791"/>
-    <col collapsed="false" hidden="false" max="254" min="6" style="2" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="3" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.6418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="66.6976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="111"/>
+    <col collapsed="false" hidden="false" max="254" min="6" style="2" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="3" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20057,11 +20063,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="50.2093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="51.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28032,11 +28038,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="50.2093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="63.9906976744186"/>
-    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="51.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="254" min="4" style="13" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28729,23 +28735,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="32.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.306976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28834,46 +28840,40 @@
       </c>
       <c r="K4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="E5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G5" s="0"/>
       <c r="I5" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="G6" s="0"/>
       <c r="I6" s="0"/>
@@ -28888,26 +28888,26 @@
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="I7" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" s="33"/>
       <c r="E8" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G8" s="34"/>
       <c r="I8" s="0"/>
@@ -28928,134 +28928,134 @@
       </c>
       <c r="G9" s="32"/>
       <c r="I9" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G10" s="0"/>
       <c r="I10" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="0"/>
       <c r="E11" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G11" s="0"/>
       <c r="I11" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12" s="0"/>
       <c r="E12" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G12" s="0"/>
       <c r="I12" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="I14" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>171</v>
-      </c>
+    <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
       <c r="E15" s="34" t="s">
         <v>225</v>
       </c>
@@ -29070,83 +29070,85 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="0"/>
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="E16" s="0"/>
       <c r="F16" s="3" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="0"/>
       <c r="I16" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>181</v>
-      </c>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
       <c r="B17" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C17" s="0"/>
       <c r="E17" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G17" s="0"/>
       <c r="I17" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="C18" s="0"/>
       <c r="E18" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G18" s="0"/>
       <c r="I18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J18" s="3" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="0"/>
       <c r="E19" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="0"/>
       <c r="I19" s="3" t="s">
@@ -29156,30 +29158,30 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="C20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="I20" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="C21" s="0"/>
       <c r="E21" s="34" t="s">
@@ -29191,8 +29193,12 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
+      <c r="A22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="C22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="3" t="s">
@@ -29200,14 +29206,10 @@
       </c>
       <c r="G22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="33"/>
+    <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="E23" s="3" t="s">
         <v>253</v>
       </c>
@@ -29217,59 +29219,59 @@
       <c r="G23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="0"/>
+      <c r="A24" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="33"/>
       <c r="E24" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>256</v>
-      </c>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
       <c r="B25" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="E25" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="0"/>
       <c r="E27" s="34" t="s">
         <v>266</v>
       </c>
@@ -29280,10 +29282,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="0"/>
       <c r="E28" s="0"/>
@@ -29293,49 +29295,49 @@
       <c r="G28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
+      <c r="A29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="C29" s="0"/>
       <c r="E29" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="33"/>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="0"/>
+      <c r="A31" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="33"/>
       <c r="E31" s="34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
-        <v>273</v>
-      </c>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
       <c r="B32" s="3" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="C32" s="0"/>
       <c r="E32" s="0"/>
@@ -29345,7 +29347,7 @@
       <c r="G32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="32" t="s">
         <v>275</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -29368,6 +29370,8 @@
         <v>279</v>
       </c>
       <c r="C34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
       <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29395,13 +29399,13 @@
       </c>
       <c r="C36" s="0"/>
       <c r="E36" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29472,6 +29476,15 @@
         <v>303</v>
       </c>
       <c r="C42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
